--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/FLORIDA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/FLORIDA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1759"/>
+  <dimension ref="A1:D1753"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -561,7 +561,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C15">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C37">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C40">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C42">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C51">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C57">
@@ -1486,7 +1486,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C85">
@@ -1499,7 +1499,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C86">
@@ -1551,7 +1551,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C90">
@@ -1603,7 +1603,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C94">
@@ -1759,7 +1759,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C106">
@@ -1785,7 +1785,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C108">
@@ -1837,7 +1837,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Santiago el Pinar</t>
+          <t>Santiago El Pinar</t>
         </is>
       </c>
       <c r="C112">
@@ -2323,7 +2323,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C149">
@@ -2388,7 +2388,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C154">
@@ -2414,7 +2414,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C156">
@@ -2848,7 +2848,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C189">
@@ -2983,7 +2983,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C199">
@@ -3009,7 +3009,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3066,7 +3066,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C205">
@@ -3396,7 +3396,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C230">
@@ -3448,7 +3448,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C234">
@@ -3539,7 +3539,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C241">
@@ -3552,7 +3552,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C242">
@@ -3669,12 +3669,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C251">
@@ -3713,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C254">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C255">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C260">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C265">
@@ -3908,7 +3908,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C269">
@@ -3986,7 +3986,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C275">
@@ -4064,7 +4064,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C281">
@@ -4246,7 +4246,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C295">
@@ -4318,7 +4318,7 @@
         <v>27</v>
       </c>
       <c r="D300">
-        <v>0.0009931217125832199</v>
+        <v>0.0009931217125832201</v>
       </c>
     </row>
     <row r="301">
@@ -4402,7 +4402,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C307">
@@ -4428,7 +4428,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C309">
@@ -4558,7 +4558,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C319">
@@ -4688,7 +4688,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C329">
@@ -4766,7 +4766,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C335">
@@ -4779,7 +4779,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C336">
@@ -4792,7 +4792,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C337">
@@ -4805,7 +4805,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C338">
@@ -4992,7 +4992,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C352">
@@ -5005,7 +5005,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C353">
@@ -5109,7 +5109,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C361">
@@ -5161,7 +5161,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C365">
@@ -5265,7 +5265,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C373">
@@ -5317,7 +5317,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C377">
@@ -5343,7 +5343,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C379">
@@ -5363,13 +5363,13 @@
         <v>27</v>
       </c>
       <c r="D380">
-        <v>0.0009931217125832199</v>
+        <v>0.0009931217125832201</v>
       </c>
     </row>
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C381">
@@ -5395,7 +5395,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C383">
@@ -5421,7 +5421,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C385">
@@ -5486,7 +5486,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C390">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C396">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C399">
@@ -5621,7 +5621,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C400">
@@ -5673,7 +5673,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C404">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C406">
@@ -5712,7 +5712,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C407">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C409">
@@ -5751,7 +5751,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C410">
@@ -5764,7 +5764,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C411">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C412">
@@ -5842,7 +5842,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C417">
@@ -5855,7 +5855,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C418">
@@ -5907,7 +5907,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C422">
@@ -5920,7 +5920,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C423">
@@ -5998,7 +5998,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C429">
@@ -6011,14 +6011,14 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C430">
         <v>27</v>
       </c>
       <c r="D430">
-        <v>0.0009931217125832199</v>
+        <v>0.0009931217125832201</v>
       </c>
     </row>
     <row r="431">
@@ -6037,7 +6037,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C432">
@@ -6050,7 +6050,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C433">
@@ -6076,7 +6076,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C435">
@@ -6115,7 +6115,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C438">
@@ -6284,7 +6284,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C451">
@@ -6310,7 +6310,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C453">
@@ -6336,7 +6336,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C455">
@@ -6362,7 +6362,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C457">
@@ -6414,7 +6414,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C461">
@@ -6427,7 +6427,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C462">
@@ -6588,7 +6588,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C474">
@@ -6666,7 +6666,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C480">
@@ -6744,7 +6744,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C486">
@@ -6809,7 +6809,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C491">
@@ -6861,7 +6861,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C495">
@@ -6900,7 +6900,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C498">
@@ -6991,7 +6991,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C505">
@@ -7004,7 +7004,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C506">
@@ -7017,7 +7017,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C507">
@@ -7030,7 +7030,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C508">
@@ -7043,7 +7043,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C509">
@@ -7069,7 +7069,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C511">
@@ -7082,7 +7082,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C512">
@@ -7095,7 +7095,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C513">
@@ -7134,7 +7134,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C516">
@@ -7212,7 +7212,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C522">
@@ -7225,7 +7225,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C523">
@@ -7245,7 +7245,7 @@
         <v>27</v>
       </c>
       <c r="D524">
-        <v>0.0009931217125832199</v>
+        <v>0.0009931217125832201</v>
       </c>
     </row>
     <row r="525">
@@ -7277,7 +7277,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C527">
@@ -7303,7 +7303,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C529">
@@ -7316,7 +7316,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C530">
@@ -7342,7 +7342,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C532">
@@ -7446,7 +7446,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C540">
@@ -7459,7 +7459,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C541">
@@ -7472,7 +7472,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C542">
@@ -7511,7 +7511,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C545">
@@ -7633,7 +7633,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C554">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C555">
@@ -7724,7 +7724,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C561">
@@ -7789,7 +7789,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C566">
@@ -7880,7 +7880,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C573">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C579">
@@ -7971,7 +7971,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C580">
@@ -8023,7 +8023,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C584">
@@ -8088,7 +8088,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C589">
@@ -8166,7 +8166,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C595">
@@ -8231,7 +8231,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C600">
@@ -8244,7 +8244,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C601">
@@ -8270,7 +8270,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C603">
@@ -8296,7 +8296,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C605">
@@ -8309,7 +8309,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C606">
@@ -8322,7 +8322,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C607">
@@ -8335,7 +8335,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C608">
@@ -8374,7 +8374,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C611">
@@ -8387,7 +8387,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C612">
@@ -8439,7 +8439,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C616">
@@ -8452,7 +8452,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C617">
@@ -8478,7 +8478,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C619">
@@ -8491,7 +8491,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C620">
@@ -8595,7 +8595,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C628">
@@ -8608,7 +8608,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C629">
@@ -8660,7 +8660,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C633">
@@ -8673,7 +8673,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C634">
@@ -8712,7 +8712,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C637">
@@ -8725,7 +8725,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C638">
@@ -9042,7 +9042,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C662">
@@ -9068,7 +9068,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C664">
@@ -9374,7 +9374,7 @@
         <v>27</v>
       </c>
       <c r="D687">
-        <v>0.0009931217125832199</v>
+        <v>0.0009931217125832201</v>
       </c>
     </row>
     <row r="688">
@@ -9900,7 +9900,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C728">
@@ -10217,7 +10217,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C752">
@@ -10321,7 +10321,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C760">
@@ -10367,13 +10367,13 @@
         <v>27</v>
       </c>
       <c r="D763">
-        <v>0.0009931217125832199</v>
+        <v>0.0009931217125832201</v>
       </c>
     </row>
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C764">
@@ -10451,7 +10451,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C770">
@@ -10477,7 +10477,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C772">
@@ -10555,7 +10555,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C778">
@@ -10612,7 +10612,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C782">
@@ -10651,7 +10651,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C785">
@@ -10729,7 +10729,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C791">
@@ -11046,7 +11046,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C815">
@@ -11059,7 +11059,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C816">
@@ -11098,7 +11098,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C819">
@@ -11181,7 +11181,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C825">
@@ -11285,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C833">
@@ -11298,7 +11298,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C834">
@@ -11337,7 +11337,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C837">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C840">
@@ -11389,7 +11389,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C841">
@@ -11402,7 +11402,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C842">
@@ -11415,7 +11415,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C843">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C844">
@@ -11441,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C845">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C846">
@@ -11467,7 +11467,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C847">
@@ -11493,7 +11493,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C849">
@@ -11506,7 +11506,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C850">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C859">
@@ -11649,7 +11649,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C861">
@@ -11675,7 +11675,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C863">
@@ -11688,7 +11688,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C864">
@@ -11740,7 +11740,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C868">
@@ -11766,7 +11766,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C870">
@@ -11779,7 +11779,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C871">
@@ -11792,7 +11792,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C872">
@@ -11818,7 +11818,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C874">
@@ -11831,7 +11831,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C875">
@@ -12026,7 +12026,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C890">
@@ -12052,7 +12052,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C892">
@@ -12260,7 +12260,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C908">
@@ -12299,7 +12299,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C911">
@@ -12364,7 +12364,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C916">
@@ -12611,7 +12611,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C935">
@@ -12702,7 +12702,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C942">
@@ -12806,7 +12806,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C950">
@@ -13235,7 +13235,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C983">
@@ -13365,7 +13365,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C993">
@@ -13378,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C994">
@@ -13391,7 +13391,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C995">
@@ -13547,7 +13547,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1007">
@@ -13599,7 +13599,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1011">
@@ -13794,7 +13794,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1026">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1027">
@@ -13937,7 +13937,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1037">
@@ -14028,7 +14028,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1044">
@@ -14132,7 +14132,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1052">
@@ -14340,7 +14340,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1068">
@@ -14665,7 +14665,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1093">
@@ -15081,7 +15081,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1125">
@@ -15341,7 +15341,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1145">
@@ -15354,7 +15354,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1146">
@@ -15367,7 +15367,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1147">
@@ -15380,7 +15380,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1148">
@@ -15393,7 +15393,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1149">
@@ -15419,7 +15419,7 @@
     <row r="1151">
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1151">
@@ -15432,7 +15432,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1152">
@@ -15445,7 +15445,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1153">
@@ -15497,7 +15497,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1157">
@@ -15510,7 +15510,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1158">
@@ -15523,7 +15523,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1159">
@@ -15536,7 +15536,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1160">
@@ -15549,7 +15549,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1161">
@@ -15562,7 +15562,7 @@
     <row r="1162">
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1162">
@@ -15575,7 +15575,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1163">
@@ -15601,7 +15601,7 @@
     <row r="1165">
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1165">
@@ -15840,7 +15840,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1183">
@@ -15879,7 +15879,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1186">
@@ -15996,7 +15996,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1195">
@@ -16100,7 +16100,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1203">
@@ -16152,7 +16152,7 @@
     <row r="1207">
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1207">
@@ -16165,7 +16165,7 @@
     <row r="1208">
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1208">
@@ -16347,7 +16347,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1222">
@@ -16360,7 +16360,7 @@
     <row r="1223">
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1223">
@@ -16425,7 +16425,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1228">
@@ -16464,7 +16464,7 @@
     <row r="1231">
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1231">
@@ -16581,7 +16581,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1240">
@@ -16711,7 +16711,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1250">
@@ -16919,7 +16919,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1266">
@@ -16971,7 +16971,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1270">
@@ -16984,7 +16984,7 @@
     <row r="1271">
       <c r="B1271" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1271">
@@ -17127,7 +17127,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1282">
@@ -17192,7 +17192,7 @@
     <row r="1287">
       <c r="B1287" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1287">
@@ -17218,7 +17218,7 @@
     <row r="1289">
       <c r="B1289" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1289">
@@ -17231,7 +17231,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1290">
@@ -17296,7 +17296,7 @@
     <row r="1295">
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1295">
@@ -17439,7 +17439,7 @@
     <row r="1306">
       <c r="B1306" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1306">
@@ -17478,7 +17478,7 @@
     <row r="1309">
       <c r="B1309" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1309">
@@ -17704,7 +17704,7 @@
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1326">
@@ -17730,7 +17730,7 @@
     <row r="1328">
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1328">
@@ -17808,7 +17808,7 @@
     <row r="1334">
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1334">
@@ -17821,7 +17821,7 @@
     <row r="1335">
       <c r="B1335" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1335">
@@ -17860,7 +17860,7 @@
     <row r="1338">
       <c r="B1338" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1338">
@@ -17899,7 +17899,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1341">
@@ -18052,7 +18052,7 @@
     <row r="1352">
       <c r="B1352" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1352">
@@ -18065,7 +18065,7 @@
     <row r="1353">
       <c r="B1353" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1353">
@@ -18130,7 +18130,7 @@
     <row r="1358">
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1358">
@@ -18260,7 +18260,7 @@
     <row r="1368">
       <c r="B1368" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1368">
@@ -18325,7 +18325,7 @@
     <row r="1373">
       <c r="B1373" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1373">
@@ -18403,7 +18403,7 @@
     <row r="1379">
       <c r="B1379" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1379">
@@ -18429,7 +18429,7 @@
     <row r="1381">
       <c r="B1381" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1381">
@@ -18507,7 +18507,7 @@
     <row r="1387">
       <c r="B1387" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1387">
@@ -18559,7 +18559,7 @@
     <row r="1391">
       <c r="B1391" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1391">
@@ -18572,7 +18572,7 @@
     <row r="1392">
       <c r="B1392" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1392">
@@ -18585,7 +18585,7 @@
     <row r="1393">
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1393">
@@ -18598,7 +18598,7 @@
     <row r="1394">
       <c r="B1394" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1394">
@@ -18611,7 +18611,7 @@
     <row r="1395">
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1395">
@@ -18624,7 +18624,7 @@
     <row r="1396">
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1396">
@@ -19289,7 +19289,7 @@
     <row r="1446">
       <c r="B1446" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1446">
@@ -19801,7 +19801,7 @@
     <row r="1485">
       <c r="B1485" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1485">
@@ -19962,7 +19962,7 @@
     <row r="1497">
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1497">
@@ -20027,7 +20027,7 @@
     <row r="1502">
       <c r="B1502" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1502">
@@ -20053,7 +20053,7 @@
     <row r="1504">
       <c r="B1504" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1504">
@@ -20079,7 +20079,7 @@
     <row r="1506">
       <c r="B1506" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1506">
@@ -20118,7 +20118,7 @@
     <row r="1509">
       <c r="B1509" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1509">
@@ -20370,7 +20370,7 @@
     <row r="1528">
       <c r="B1528" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1528">
@@ -20422,7 +20422,7 @@
     <row r="1532">
       <c r="B1532" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1532">
@@ -20578,7 +20578,7 @@
     <row r="1544">
       <c r="B1544" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1544">
@@ -20630,7 +20630,7 @@
     <row r="1548">
       <c r="B1548" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1548">
@@ -20656,7 +20656,7 @@
     <row r="1550">
       <c r="B1550" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1550">
@@ -20747,7 +20747,7 @@
     <row r="1557">
       <c r="B1557" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1557">
@@ -20819,7 +20819,7 @@
         <v>27</v>
       </c>
       <c r="D1562">
-        <v>0.0009931217125832199</v>
+        <v>0.0009931217125832201</v>
       </c>
     </row>
     <row r="1563">
@@ -20877,7 +20877,7 @@
     <row r="1567">
       <c r="B1567" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1567">
@@ -20890,7 +20890,7 @@
     <row r="1568">
       <c r="B1568" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1568">
@@ -21098,7 +21098,7 @@
     <row r="1584">
       <c r="B1584" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1584">
@@ -21111,7 +21111,7 @@
     <row r="1585">
       <c r="B1585" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1585">
@@ -21124,7 +21124,7 @@
     <row r="1586">
       <c r="B1586" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1586">
@@ -21163,7 +21163,7 @@
     <row r="1589">
       <c r="B1589" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1589">
@@ -21176,7 +21176,7 @@
     <row r="1590">
       <c r="B1590" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1590">
@@ -21189,7 +21189,7 @@
     <row r="1591">
       <c r="B1591" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1591">
@@ -21319,7 +21319,7 @@
     <row r="1601">
       <c r="B1601" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1601">
@@ -21371,7 +21371,7 @@
     <row r="1605">
       <c r="B1605" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1605">
@@ -21423,7 +21423,7 @@
     <row r="1609">
       <c r="B1609" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1609">
@@ -21449,7 +21449,7 @@
     <row r="1611">
       <c r="B1611" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1611">
@@ -21501,7 +21501,7 @@
     <row r="1615">
       <c r="B1615" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1615">
@@ -21527,7 +21527,7 @@
     <row r="1617">
       <c r="B1617" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1617">
@@ -21625,13 +21625,13 @@
         <v>27</v>
       </c>
       <c r="D1624">
-        <v>0.0009931217125832199</v>
+        <v>0.0009931217125832201</v>
       </c>
     </row>
     <row r="1625">
       <c r="B1625" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1625">
@@ -21683,7 +21683,7 @@
     <row r="1629">
       <c r="B1629" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1629">
@@ -21722,7 +21722,7 @@
     <row r="1632">
       <c r="B1632" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1632">
@@ -21839,7 +21839,7 @@
     <row r="1641">
       <c r="B1641" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1641">
@@ -21878,7 +21878,7 @@
     <row r="1644">
       <c r="B1644" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1644">
@@ -21969,7 +21969,7 @@
     <row r="1651">
       <c r="B1651" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1651">
@@ -22411,7 +22411,7 @@
     <row r="1685">
       <c r="B1685" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1685">
@@ -22528,7 +22528,7 @@
     <row r="1694">
       <c r="B1694" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1694">
@@ -22541,7 +22541,7 @@
     <row r="1695">
       <c r="B1695" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1695">
@@ -22772,7 +22772,7 @@
     <row r="1712">
       <c r="B1712" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1712">
@@ -22798,7 +22798,7 @@
     <row r="1714">
       <c r="B1714" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1714">
@@ -22824,7 +22824,7 @@
     <row r="1716">
       <c r="B1716" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1716">
@@ -22941,7 +22941,7 @@
     <row r="1725">
       <c r="B1725" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1725">
@@ -23032,7 +23032,7 @@
     <row r="1732">
       <c r="B1732" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1732">
@@ -23149,7 +23149,7 @@
     <row r="1741">
       <c r="B1741" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1741">
@@ -23162,7 +23162,7 @@
     <row r="1742">
       <c r="B1742" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1742">
@@ -23214,7 +23214,7 @@
     <row r="1746">
       <c r="B1746" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1746">
@@ -23313,41 +23313,6 @@
       </c>
       <c r="D1753">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1755">
-      <c r="A1755" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1756">
-      <c r="A1756" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1757">
-      <c r="A1757" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1758">
-      <c r="A1758" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1759">
-      <c r="A1759" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
